--- a/读写excel/book2.xlsx
+++ b/读写excel/book2.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
     <t>Small</t>
   </si>
   <si>
@@ -23,15 +32,6 @@
   </si>
   <si>
     <t>Large</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Pear</t>
   </si>
 </sst>
 </file>
@@ -662,18 +662,18 @@
   <sheetData>
     <row customHeight="true" ht="15" r="1">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -687,7 +687,7 @@
     </row>
     <row customHeight="true" ht="15" r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -701,7 +701,7 @@
     </row>
     <row customHeight="true" ht="15" r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>6</v>
